--- a/Kelly_errors_to_fix.xlsx
+++ b/Kelly_errors_to_fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelly\Documents\Belize-MP-Bruno-Boos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5116A45-9948-4BAF-AA1E-4C0689FA9349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590B639F-A619-4D48-B75A-0018AAA8B3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11470" yWindow="100" windowWidth="7720" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="42">
   <si>
     <t>Year</t>
   </si>
@@ -39,20 +39,125 @@
     <t>Month 10 should be 9</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
     <t>508E</t>
   </si>
   <si>
     <t>Date placed should be 7/29</t>
+  </si>
+  <si>
+    <t>601J</t>
+  </si>
+  <si>
+    <t>602J</t>
+  </si>
+  <si>
+    <t>603J</t>
+  </si>
+  <si>
+    <t>606J</t>
+  </si>
+  <si>
+    <t>612A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obs date &gt; enddate </t>
+  </si>
+  <si>
+    <t>Obs date &lt; date placed</t>
+  </si>
+  <si>
+    <t>Issue in Code</t>
+  </si>
+  <si>
+    <t>Specific error</t>
+  </si>
+  <si>
+    <t>Pic Number</t>
+  </si>
+  <si>
+    <t>obsdate is 1 day after endday</t>
+  </si>
+  <si>
+    <t>obsdate is 4 days after endday</t>
+  </si>
+  <si>
+    <t>obsdate is &gt; month after endday</t>
+  </si>
+  <si>
+    <t>609B</t>
+  </si>
+  <si>
+    <t>610A</t>
+  </si>
+  <si>
+    <t>obsdate is 1 day before place date</t>
+  </si>
+  <si>
+    <t>obsdate is 10 days before place date</t>
+  </si>
+  <si>
+    <t>obsdate is &gt; month before place date</t>
+  </si>
+  <si>
+    <t>Supposed obs date in Question</t>
+  </si>
+  <si>
+    <t>701F</t>
+  </si>
+  <si>
+    <t>702E</t>
+  </si>
+  <si>
+    <t>708D</t>
+  </si>
+  <si>
+    <t>709E</t>
+  </si>
+  <si>
+    <t>710E</t>
+  </si>
+  <si>
+    <t>710G</t>
+  </si>
+  <si>
+    <t>711E</t>
+  </si>
+  <si>
+    <t>712B</t>
+  </si>
+  <si>
+    <t>712E</t>
+  </si>
+  <si>
+    <t>10080232***</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>obsdate 1 day after</t>
+  </si>
+  <si>
+    <t>obs date 1 day after</t>
+  </si>
+  <si>
+    <t>obs date 2 day after</t>
+  </si>
+  <si>
+    <t>713E</t>
+  </si>
+  <si>
+    <t>714F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +171,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,13 +213,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,82 +507,2242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
       <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2015</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>251</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2015</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2015</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2015</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4">
+        <v>275</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5">
+        <v>42618</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4087</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3">
+        <v>42575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4">
+        <v>377</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5">
+        <v>42621</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4">
+        <v>100</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="5">
+        <v>42621</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3">
+        <v>42472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3">
+        <v>42509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>164</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="3">
+        <v>42371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>167</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="3">
+        <v>42376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1">
+        <v>165</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="3">
+        <v>42375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4916</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="2">
+        <v>43043</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>81</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="2">
+        <v>43020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>84</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="2">
+        <v>43020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>87</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="2">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>90</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="2">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>67</v>
+      </c>
+      <c r="F21" s="2">
+        <v>42954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>73</v>
+      </c>
+      <c r="F22" s="2">
+        <v>42956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>61</v>
+      </c>
+      <c r="F23" s="2">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>64</v>
+      </c>
+      <c r="F24" s="2">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>79</v>
+      </c>
+      <c r="F25" s="2">
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>157</v>
+      </c>
+      <c r="F26" s="2">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>160</v>
+      </c>
+      <c r="F27" s="2">
+        <v>43017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>145</v>
+      </c>
+      <c r="F28" s="2">
+        <v>43013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>184</v>
+      </c>
+      <c r="F29" s="2">
+        <v>43027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>193</v>
+      </c>
+      <c r="F30" s="2">
+        <v>43029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>223</v>
+      </c>
+      <c r="F31" s="2">
+        <v>43036</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>226</v>
+      </c>
+      <c r="F32" s="2">
+        <v>43037</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>172</v>
+      </c>
+      <c r="F33" s="2">
+        <v>43019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>175</v>
+      </c>
+      <c r="F34" s="2">
+        <v>43020</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>166</v>
+      </c>
+      <c r="F35" s="2">
+        <v>43019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>181</v>
+      </c>
+      <c r="F36" s="2">
+        <v>43027</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>187</v>
+      </c>
+      <c r="F37" s="2">
+        <v>43027</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>163</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>154</v>
+      </c>
+      <c r="F39" s="2">
+        <v>43014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>178</v>
+      </c>
+      <c r="F40" s="2">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>217</v>
+      </c>
+      <c r="F41" s="2">
+        <v>43032</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>220</v>
+      </c>
+      <c r="F42" s="2">
+        <v>43034</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>10060220</v>
+      </c>
+      <c r="F43" s="2">
+        <v>43014</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>10130256</v>
+      </c>
+      <c r="F44" s="2">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>10130259</v>
+      </c>
+      <c r="F45" s="2">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>10140268</v>
+      </c>
+      <c r="F46" s="2">
+        <v>43022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>10270340</v>
+      </c>
+      <c r="F47" s="2">
+        <v>43035</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>10270343</v>
+      </c>
+      <c r="F48" s="2">
+        <v>43035</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>10130262</v>
+      </c>
+      <c r="F49" s="2">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>10040217</v>
+      </c>
+      <c r="F50" s="2">
+        <v>43012</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>10080223</v>
+      </c>
+      <c r="F51" s="2">
+        <v>43016</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>10160280</v>
+      </c>
+      <c r="F52" s="2">
+        <v>43024</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>10220301</v>
+      </c>
+      <c r="F53" s="2">
+        <v>43030</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <v>10270337</v>
+      </c>
+      <c r="F54" s="2">
+        <v>43035</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>10310355</v>
+      </c>
+      <c r="F55" s="2">
+        <v>43039</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>10120244</v>
+      </c>
+      <c r="F56" s="2">
+        <v>43020</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>10160284</v>
+      </c>
+      <c r="F57" s="2">
+        <v>43024</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>10130266</v>
+      </c>
+      <c r="F58" s="2">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59">
+        <v>10160275</v>
+      </c>
+      <c r="F59" s="2">
+        <v>43024</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>10210295</v>
+      </c>
+      <c r="F60" s="2">
+        <v>43029</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61">
+        <v>10250304</v>
+      </c>
+      <c r="F61" s="2">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>10250307</v>
+      </c>
+      <c r="F62" s="2">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63">
+        <v>10290346</v>
+      </c>
+      <c r="F63" s="2">
+        <v>43037</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>10220298</v>
+      </c>
+      <c r="F64" s="2">
+        <v>43030</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>10120247</v>
+      </c>
+      <c r="F65" s="2">
+        <v>43020</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66">
+        <v>10110243</v>
+      </c>
+      <c r="F66" s="2">
+        <v>43019</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>10260313</v>
+      </c>
+      <c r="F67" s="2">
+        <v>43035</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="2">
+        <v>43018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69">
+        <v>451</v>
+      </c>
+      <c r="F69" s="2">
+        <v>43102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <v>151</v>
+      </c>
+      <c r="F70" s="2">
+        <v>43005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71">
+        <v>274</v>
+      </c>
+      <c r="F71" s="2">
+        <v>43027</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>202</v>
+      </c>
+      <c r="F72" s="2">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73">
+        <v>208</v>
+      </c>
+      <c r="F73" s="2">
+        <v>43011</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74">
+        <v>199</v>
+      </c>
+      <c r="F74" s="2">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75">
+        <v>94</v>
+      </c>
+      <c r="F75" s="2">
+        <v>43001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <v>103</v>
+      </c>
+      <c r="F76" s="2">
+        <v>43002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77">
+        <v>112</v>
+      </c>
+      <c r="F77" s="2">
+        <v>43002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78">
+        <v>144</v>
+      </c>
+      <c r="F78" s="2">
+        <v>43003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79">
+        <v>157</v>
+      </c>
+      <c r="F79" s="2">
+        <v>43006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80">
+        <v>160</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81">
+        <v>163</v>
+      </c>
+      <c r="F81" s="2">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <v>175</v>
+      </c>
+      <c r="F82" s="2">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83">
+        <v>185</v>
+      </c>
+      <c r="F83" s="2">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>238</v>
+      </c>
+      <c r="F84" s="2">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85">
+        <v>244</v>
+      </c>
+      <c r="F85" s="2">
+        <v>43022</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86">
+        <v>250</v>
+      </c>
+      <c r="F86" s="2">
+        <v>43024</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87">
+        <v>253</v>
+      </c>
+      <c r="F87" s="2">
+        <v>43025</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <v>259</v>
+      </c>
+      <c r="F88" s="2">
+        <v>43025</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>277</v>
+      </c>
+      <c r="F89" s="2">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90">
+        <v>286</v>
+      </c>
+      <c r="F90" s="2">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91">
+        <v>136</v>
+      </c>
+      <c r="F91" s="2">
+        <v>43003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92">
+        <v>220</v>
+      </c>
+      <c r="F92" s="2">
+        <v>43014</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93">
+        <v>271</v>
+      </c>
+      <c r="F93" s="2">
+        <v>43026</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94">
+        <v>37</v>
+      </c>
+      <c r="F94" s="2">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="F95" s="2">
+        <v>42915</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="F96" s="2">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97">
+        <v>10</v>
+      </c>
+      <c r="F97" s="2">
+        <v>42919</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98">
+        <v>28</v>
+      </c>
+      <c r="F98" s="2">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99">
+        <v>22</v>
+      </c>
+      <c r="F99" s="2">
+        <v>42922</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100">
+        <v>7</v>
+      </c>
+      <c r="F100" s="2">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101">
+        <v>19</v>
+      </c>
+      <c r="F101" s="2">
+        <v>42922</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102">
+        <v>16</v>
+      </c>
+      <c r="F102" s="2">
+        <v>42922</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103">
+        <v>169</v>
+      </c>
+      <c r="F103" s="2">
+        <v>43030</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104">
+        <v>172</v>
+      </c>
+      <c r="F104" s="2">
+        <v>43034</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105">
+        <v>136</v>
+      </c>
+      <c r="F105" s="2">
+        <v>43016</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106">
+        <v>182</v>
+      </c>
+      <c r="F106" s="2">
+        <v>43037</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107">
+        <v>152</v>
+      </c>
+      <c r="F107" s="2">
+        <v>43024</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108">
+        <v>157</v>
+      </c>
+      <c r="F108" s="2">
+        <v>43026</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109">
+        <v>148</v>
+      </c>
+      <c r="F109" s="2">
+        <v>43020</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110">
+        <v>160</v>
+      </c>
+      <c r="F110" s="2">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111">
+        <v>163</v>
+      </c>
+      <c r="F111" s="2">
+        <v>43030</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112">
+        <v>55</v>
+      </c>
+      <c r="F112" s="2">
+        <v>43024</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113">
+        <v>35</v>
+      </c>
+      <c r="F113" s="2">
+        <v>42995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114">
+        <v>47</v>
+      </c>
+      <c r="F114" s="2">
+        <v>42998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115">
+        <v>102</v>
+      </c>
+      <c r="F115" s="2">
+        <v>43018</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116">
+        <v>10</v>
+      </c>
+      <c r="F116" s="2">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117">
+        <v>67</v>
+      </c>
+      <c r="F117" s="2">
+        <v>43006</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118">
+        <v>95</v>
+      </c>
+      <c r="F118" s="2">
+        <v>43016</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119">
+        <v>14</v>
+      </c>
+      <c r="F119" s="2">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120">
+        <v>27</v>
+      </c>
+      <c r="F120" s="2">
+        <v>42992</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121">
+        <v>69</v>
+      </c>
+      <c r="F121" s="2">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122">
+        <v>51</v>
+      </c>
+      <c r="F122" s="2">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123">
+        <v>106</v>
+      </c>
+      <c r="F123" s="2">
+        <v>43019</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124">
+        <v>37</v>
+      </c>
+      <c r="F124" s="2">
+        <v>42996</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125">
+        <v>59</v>
+      </c>
+      <c r="F125" s="2">
+        <v>43002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126">
+        <v>91</v>
+      </c>
+      <c r="F126" s="2">
+        <v>43011</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="F127" s="2">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128">
+        <v>136</v>
+      </c>
+      <c r="F128" s="2">
+        <v>43028</v>
       </c>
     </row>
   </sheetData>

--- a/Kelly_errors_to_fix.xlsx
+++ b/Kelly_errors_to_fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelly\Documents\Belize-MP-Bruno-Boos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590B639F-A619-4D48-B75A-0018AAA8B3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F2DA32-CE37-4AD8-B244-38AA17809176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11470" yWindow="100" windowWidth="7720" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Kelly_errors_to_fix.xlsx
+++ b/Kelly_errors_to_fix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelly\Documents\Belize-MP-Bruno-Boos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F2DA32-CE37-4AD8-B244-38AA17809176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2406FD-972D-43E4-8F99-E82F11C1A84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11470" yWindow="100" windowWidth="7720" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="48">
   <si>
     <t>Year</t>
   </si>
@@ -99,9 +99,6 @@
     <t>obsdate is &gt; month before place date</t>
   </si>
   <si>
-    <t>Supposed obs date in Question</t>
-  </si>
-  <si>
     <t>701F</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>712E</t>
   </si>
   <si>
-    <t>10080232***</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -151,13 +145,37 @@
   </si>
   <si>
     <t>714F</t>
+  </si>
+  <si>
+    <t>Supposed Obs Date</t>
+  </si>
+  <si>
+    <t>Actual Obs Date</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>Missing photo</t>
+  </si>
+  <si>
+    <t>dates do not match</t>
+  </si>
+  <si>
+    <t>camera issue or?</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>date wrong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,8 +203,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +235,17 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -213,20 +256,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,21 +557,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="89" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,13 +589,19 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -558,7 +615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -572,7 +629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -586,7 +643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -600,2145 +657,2352 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>2016</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
         <v>275</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>42618</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="4">
+        <v>42618</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4087</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6">
+        <v>42575</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3">
+        <v>377</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4">
+        <v>42621</v>
+      </c>
+      <c r="G8" s="4">
+        <v>42621</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4">
+        <v>42621</v>
+      </c>
+      <c r="G9" s="4">
+        <v>42621</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="8">
+        <v>42472</v>
+      </c>
+      <c r="G10" s="8">
+        <v>42472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6">
+        <v>42509</v>
+      </c>
+      <c r="G11" s="6">
+        <v>42531</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5">
+        <v>34</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="6">
+        <v>42500</v>
+      </c>
+      <c r="G12" s="6">
+        <v>42531</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5">
+        <v>164</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="6">
+        <v>42371</v>
+      </c>
+      <c r="G13" s="6">
+        <v>40910</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5">
+        <v>167</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="6">
+        <v>42376</v>
+      </c>
+      <c r="G14" s="6">
+        <v>40915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5">
+        <v>165</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="6">
+        <v>42375</v>
+      </c>
+      <c r="G15" s="6">
+        <v>40914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4916</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="8">
+        <v>43043</v>
+      </c>
+      <c r="G16" s="8">
+        <v>43043</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7">
+        <v>81</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4087</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3">
-        <v>42575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4">
-        <v>377</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5">
-        <v>42621</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="F17" s="8">
+        <v>43020</v>
+      </c>
+      <c r="G17" s="8">
+        <v>43020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7">
+        <v>84</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>2016</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4">
-        <v>100</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="5">
-        <v>42621</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="3">
-        <v>42472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="F18" s="8">
+        <v>43020</v>
+      </c>
+      <c r="G18" s="8">
+        <v>43020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="7">
+        <v>87</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="3">
-        <v>42509</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1">
-        <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="3">
-        <v>42500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1">
-        <v>164</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="3">
-        <v>42371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1">
-        <v>167</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="3">
-        <v>42376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1">
-        <v>165</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="3">
-        <v>42375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="F19" s="8">
+        <v>43021</v>
+      </c>
+      <c r="G19" s="8">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4916</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="C20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="7">
+        <v>90</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="2">
-        <v>43043</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="F20" s="8">
+        <v>43021</v>
+      </c>
+      <c r="G20" s="8">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>81</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="C21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7">
+        <v>67</v>
+      </c>
+      <c r="F21" s="8">
+        <v>42954</v>
+      </c>
+      <c r="G21" s="8">
+        <v>42954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7">
+        <v>73</v>
+      </c>
+      <c r="F22" s="8">
+        <v>42956</v>
+      </c>
+      <c r="G22" s="8">
+        <v>42956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7">
+        <v>61</v>
+      </c>
+      <c r="F23" s="8">
+        <v>42951</v>
+      </c>
+      <c r="G23" s="8">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="7">
+        <v>64</v>
+      </c>
+      <c r="F24" s="8">
+        <v>42951</v>
+      </c>
+      <c r="G24" s="8">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="7">
+        <v>79</v>
+      </c>
+      <c r="F25" s="8">
+        <v>42957</v>
+      </c>
+      <c r="G25" s="8">
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="7">
+        <v>157</v>
+      </c>
+      <c r="F26" s="8">
+        <v>43015</v>
+      </c>
+      <c r="G26" s="8">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="7">
+        <v>160</v>
+      </c>
+      <c r="F27" s="8">
+        <v>43017</v>
+      </c>
+      <c r="G27" s="8">
+        <v>43017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="7">
+        <v>145</v>
+      </c>
+      <c r="F28" s="8">
+        <v>43013</v>
+      </c>
+      <c r="G28" s="8">
+        <v>43013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="7">
+        <v>184</v>
+      </c>
+      <c r="F29" s="8">
+        <v>43027</v>
+      </c>
+      <c r="G29" s="8">
+        <v>43027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="7">
+        <v>193</v>
+      </c>
+      <c r="F30" s="8">
+        <v>43029</v>
+      </c>
+      <c r="G30" s="8">
+        <v>43029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="7">
+        <v>223</v>
+      </c>
+      <c r="F31" s="8">
+        <v>43036</v>
+      </c>
+      <c r="G31" s="8">
+        <v>43036</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="7">
+        <v>226</v>
+      </c>
+      <c r="F32" s="8">
+        <v>43037</v>
+      </c>
+      <c r="G32" s="8">
+        <v>43037</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="7">
+        <v>172</v>
+      </c>
+      <c r="F33" s="8">
+        <v>43019</v>
+      </c>
+      <c r="G33" s="8">
+        <v>43019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="7">
+        <v>175</v>
+      </c>
+      <c r="F34" s="8">
         <v>43020</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18">
-        <v>84</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="G34" s="8">
         <v>43020</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <v>87</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="2">
+    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="7">
+        <v>166</v>
+      </c>
+      <c r="F35" s="8">
+        <v>43019</v>
+      </c>
+      <c r="G35" s="8">
+        <v>43019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="7">
+        <v>181</v>
+      </c>
+      <c r="F36" s="8">
+        <v>43027</v>
+      </c>
+      <c r="G36" s="8">
+        <v>43027</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="7">
+        <v>187</v>
+      </c>
+      <c r="F37" s="8">
+        <v>43027</v>
+      </c>
+      <c r="G37" s="8">
+        <v>43027</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="7">
+        <v>163</v>
+      </c>
+      <c r="F38" s="8">
+        <v>43018</v>
+      </c>
+      <c r="G38" s="8">
+        <v>43018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="7">
+        <v>154</v>
+      </c>
+      <c r="F39" s="8">
+        <v>43014</v>
+      </c>
+      <c r="G39" s="8">
+        <v>43014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="7">
+        <v>178</v>
+      </c>
+      <c r="F40" s="8">
         <v>43021</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <v>90</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="G40" s="8">
         <v>43021</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21">
-        <v>67</v>
-      </c>
-      <c r="F21" s="2">
-        <v>42954</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="7">
+        <v>217</v>
+      </c>
+      <c r="F41" s="8">
+        <v>43032</v>
+      </c>
+      <c r="G41" s="8">
+        <v>43032</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22">
-        <v>73</v>
-      </c>
-      <c r="F22" s="2">
-        <v>42956</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23">
-        <v>61</v>
-      </c>
-      <c r="F23" s="2">
-        <v>42951</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24">
-        <v>64</v>
-      </c>
-      <c r="F24" s="2">
-        <v>42951</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <v>79</v>
-      </c>
-      <c r="F25" s="2">
-        <v>42957</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="7">
+        <v>220</v>
+      </c>
+      <c r="F42" s="8">
+        <v>43034</v>
+      </c>
+      <c r="G42" s="8">
+        <v>43034</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26">
-        <v>157</v>
-      </c>
-      <c r="F26" s="2">
-        <v>43015</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27">
-        <v>160</v>
-      </c>
-      <c r="F27" s="2">
-        <v>43017</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28">
-        <v>145</v>
-      </c>
-      <c r="F28" s="2">
-        <v>43013</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29">
-        <v>184</v>
-      </c>
-      <c r="F29" s="2">
-        <v>43027</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30">
-        <v>193</v>
-      </c>
-      <c r="F30" s="2">
-        <v>43029</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31">
-        <v>223</v>
-      </c>
-      <c r="F31" s="2">
-        <v>43036</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32">
-        <v>226</v>
-      </c>
-      <c r="F32" s="2">
-        <v>43037</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33">
-        <v>172</v>
-      </c>
-      <c r="F33" s="2">
-        <v>43019</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34">
-        <v>175</v>
-      </c>
-      <c r="F34" s="2">
-        <v>43020</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35">
-        <v>166</v>
-      </c>
-      <c r="F35" s="2">
-        <v>43019</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36">
-        <v>181</v>
-      </c>
-      <c r="F36" s="2">
-        <v>43027</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37">
-        <v>187</v>
-      </c>
-      <c r="F37" s="2">
-        <v>43027</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38">
-        <v>163</v>
-      </c>
-      <c r="F38" s="2">
-        <v>43018</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39">
-        <v>154</v>
-      </c>
-      <c r="F39" s="2">
-        <v>43014</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40">
-        <v>178</v>
-      </c>
-      <c r="F40" s="2">
-        <v>43021</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41">
-        <v>217</v>
-      </c>
-      <c r="F41" s="2">
-        <v>43032</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42">
-        <v>220</v>
-      </c>
-      <c r="F42" s="2">
-        <v>43034</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>10060220</v>
       </c>
       <c r="F43" s="2">
         <v>43014</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G43" s="2">
+        <v>43014</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2017</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>10130256</v>
       </c>
       <c r="F44" s="2">
         <v>43021</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G44" s="2">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2017</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>10130259</v>
       </c>
       <c r="F45" s="2">
         <v>43021</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G45" s="2">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2017</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>10140268</v>
       </c>
       <c r="F46" s="2">
         <v>43022</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G46" s="2">
+        <v>43022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2017</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>10270340</v>
       </c>
       <c r="F47" s="2">
         <v>43035</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G47" s="2">
+        <v>43035</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2017</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>10270343</v>
       </c>
       <c r="F48" s="2">
         <v>43035</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G48" s="2">
+        <v>43035</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2017</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>10130262</v>
       </c>
       <c r="F49" s="2">
         <v>43021</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G49" s="2">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2017</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>10040217</v>
       </c>
       <c r="F50" s="2">
         <v>43012</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G50" s="2">
+        <v>43012</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2017</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>10080223</v>
       </c>
       <c r="F51" s="2">
         <v>43016</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G51" s="2">
+        <v>43016</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2017</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>10160280</v>
       </c>
       <c r="F52" s="2">
         <v>43024</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G52" s="2">
+        <v>43024</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2017</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>10220301</v>
       </c>
       <c r="F53" s="2">
         <v>43030</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G53" s="2">
+        <v>43030</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2017</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>10270337</v>
       </c>
       <c r="F54" s="2">
         <v>43035</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G54" s="2">
+        <v>43035</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2017</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>10310355</v>
       </c>
       <c r="F55" s="2">
         <v>43039</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G55" s="2">
+        <v>43039</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2017</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>10120244</v>
       </c>
       <c r="F56" s="2">
         <v>43020</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G56" s="2">
+        <v>43020</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2017</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>10160284</v>
       </c>
       <c r="F57" s="2">
         <v>43024</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G57" s="2">
+        <v>43024</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2017</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>10130266</v>
       </c>
       <c r="F58" s="2">
         <v>43021</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G58" s="2">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2017</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>10160275</v>
       </c>
       <c r="F59" s="2">
         <v>43024</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G59" s="2">
+        <v>43024</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2017</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>10210295</v>
       </c>
       <c r="F60" s="2">
         <v>43029</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G60" s="2">
+        <v>43029</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2017</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>10250304</v>
       </c>
       <c r="F61" s="2">
         <v>43033</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G61" s="2">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2017</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>10250307</v>
       </c>
       <c r="F62" s="2">
         <v>43033</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G62" s="2">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2017</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>10290346</v>
       </c>
       <c r="F63" s="2">
         <v>43037</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G63" s="2">
+        <v>43037</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2017</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>10220298</v>
       </c>
       <c r="F64" s="2">
         <v>43030</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G64" s="2">
+        <v>43030</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>2017</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>10120247</v>
       </c>
       <c r="F65" s="2">
         <v>43020</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G65" s="2">
+        <v>43020</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>2017</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>10110243</v>
       </c>
       <c r="F66" s="2">
         <v>43019</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B67" s="1" t="s">
+      <c r="G66" s="2">
+        <v>43019</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="5">
+        <v>10260313</v>
+      </c>
+      <c r="F67" s="6">
+        <v>43035</v>
+      </c>
+      <c r="G67" s="6">
+        <v>43034</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="5">
+        <v>10080232</v>
+      </c>
+      <c r="F68" s="6">
+        <v>43018</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67">
-        <v>10260313</v>
-      </c>
-      <c r="F67" s="2">
-        <v>43035</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s">
-        <v>34</v>
-      </c>
-      <c r="F68" s="2">
-        <v>43018</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C69" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
         <v>451</v>
       </c>
       <c r="F69" s="2">
         <v>43102</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>2017</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <v>151</v>
       </c>
       <c r="F70" s="2">
         <v>43005</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>2017</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
         <v>274</v>
       </c>
       <c r="F71" s="2">
         <v>43027</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>2017</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>202</v>
       </c>
       <c r="F72" s="2">
         <v>43010</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>2017</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>208</v>
       </c>
       <c r="F73" s="2">
         <v>43011</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>2017</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>199</v>
       </c>
       <c r="F74" s="2">
         <v>43010</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>2017</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>94</v>
       </c>
       <c r="F75" s="2">
         <v>43001</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>2017</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>103</v>
       </c>
       <c r="F76" s="2">
         <v>43002</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>2017</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>112</v>
       </c>
       <c r="F77" s="2">
         <v>43002</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>2017</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
         <v>144</v>
       </c>
       <c r="F78" s="2">
         <v>43003</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>2017</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
         <v>157</v>
       </c>
       <c r="F79" s="2">
         <v>43006</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>2017</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>160</v>
       </c>
       <c r="F80" s="2">
         <v>43006</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>2017</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
         <v>163</v>
       </c>
       <c r="F81" s="2">
         <v>43007</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>2017</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
         <v>175</v>
       </c>
       <c r="F82" s="2">
         <v>43007</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>2017</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
         <v>185</v>
       </c>
       <c r="F83" s="2">
         <v>43007</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>2017</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
         <v>238</v>
       </c>
       <c r="F84" s="2">
         <v>43021</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>2017</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
         <v>244</v>
       </c>
       <c r="F85" s="2">
         <v>43022</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>2017</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>250</v>
       </c>
       <c r="F86" s="2">
         <v>43024</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>2017</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>253</v>
       </c>
       <c r="F87" s="2">
         <v>43025</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>2017</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>259</v>
       </c>
       <c r="F88" s="2">
         <v>43025</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>2017</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>277</v>
       </c>
       <c r="F89" s="2">
         <v>43028</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>2017</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>286</v>
       </c>
       <c r="F90" s="2">
         <v>43028</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>2017</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>136</v>
       </c>
       <c r="F91" s="2">
         <v>43003</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>2017</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
         <v>220</v>
       </c>
       <c r="F92" s="2">
         <v>43014</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>2017</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
         <v>271</v>
       </c>
       <c r="F93" s="2">
         <v>43026</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>2017</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
         <v>37</v>
       </c>
       <c r="F94" s="2">
         <v>42923</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>2017</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
         <v>1</v>
       </c>
       <c r="F95" s="2">
         <v>42915</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>2017</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1">
         <v>5</v>
       </c>
       <c r="F96" s="2">
         <v>42917</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>2017</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1">
         <v>10</v>
       </c>
       <c r="F97" s="2">
         <v>42919</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>2017</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="1">
         <v>28</v>
       </c>
       <c r="F98" s="2">
         <v>42923</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>2017</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="1">
         <v>22</v>
       </c>
       <c r="F99" s="2">
         <v>42922</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>2017</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="1">
         <v>7</v>
       </c>
       <c r="F100" s="2">
         <v>42917</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>2017</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="1">
         <v>19</v>
       </c>
       <c r="F101" s="2">
         <v>42922</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>2017</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="1">
         <v>16</v>
       </c>
       <c r="F102" s="2">
         <v>42922</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>2017</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="1">
         <v>169</v>
       </c>
       <c r="F103" s="2">
         <v>43030</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>2017</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="1">
         <v>172</v>
       </c>
       <c r="F104" s="2">
         <v>43034</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>2017</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1">
         <v>136</v>
       </c>
       <c r="F105" s="2">
         <v>43016</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>2017</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="1">
         <v>182</v>
       </c>
       <c r="F106" s="2">
         <v>43037</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>2017</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="1">
         <v>152</v>
       </c>
       <c r="F107" s="2">
         <v>43024</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>2017</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="1">
         <v>157</v>
       </c>
       <c r="F108" s="2">
         <v>43026</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>2017</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1">
         <v>148</v>
       </c>
       <c r="F109" s="2">
         <v>43020</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>2017</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="1">
         <v>160</v>
       </c>
       <c r="F110" s="2">
         <v>43028</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>2017</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="1">
         <v>163</v>
       </c>
       <c r="F111" s="2">
         <v>43030</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>2017</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="1">
         <v>55</v>
       </c>
       <c r="F112" s="2">
         <v>43024</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>2017</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="1">
         <v>35</v>
       </c>
       <c r="F113" s="2">
         <v>42995</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>2017</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="1">
         <v>47</v>
       </c>
       <c r="F114" s="2">
         <v>42998</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>2017</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="1">
         <v>102</v>
       </c>
       <c r="F115" s="2">
         <v>43018</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>2017</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="1">
         <v>10</v>
       </c>
       <c r="F116" s="2">
         <v>42982</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>2017</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="1">
         <v>67</v>
       </c>
       <c r="F117" s="2">
         <v>43006</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>2017</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="1">
         <v>95</v>
       </c>
       <c r="F118" s="2">
         <v>43016</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>2017</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="1">
         <v>14</v>
       </c>
       <c r="F119" s="2">
         <v>42982</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>2017</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="1">
         <v>27</v>
       </c>
       <c r="F120" s="2">
         <v>42992</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>2017</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="1">
         <v>69</v>
       </c>
       <c r="F121" s="2">
         <v>43007</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>2017</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="1">
         <v>51</v>
       </c>
       <c r="F122" s="2">
         <v>43000</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>2017</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="1">
         <v>106</v>
       </c>
       <c r="F123" s="2">
         <v>43019</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>2017</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="1">
         <v>37</v>
       </c>
       <c r="F124" s="2">
         <v>42996</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>2017</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="1">
         <v>59</v>
       </c>
       <c r="F125" s="2">
         <v>43002</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>2017</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="1">
         <v>91</v>
       </c>
       <c r="F126" s="2">
         <v>43011</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>2017</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="1">
         <v>5</v>
       </c>
       <c r="F127" s="2">
         <v>42982</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>2017</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="1">
         <v>136</v>
       </c>
       <c r="F128" s="2">

--- a/Kelly_errors_to_fix.xlsx
+++ b/Kelly_errors_to_fix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelly\Documents\Belize-MP-Bruno-Boos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2406FD-972D-43E4-8F99-E82F11C1A84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3020643-3A54-40D5-9F42-4A4A33ABE219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11470" yWindow="100" windowWidth="7720" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="49">
   <si>
     <t>Year</t>
   </si>
@@ -169,13 +169,16 @@
   </si>
   <si>
     <t>date wrong</t>
+  </si>
+  <si>
+    <t>I think the year is supposed to be 2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,13 +201,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -218,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,11 +224,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -256,29 +247,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+  <cellStyles count="4">
+    <cellStyle name="40% - Accent5" xfId="3" builtinId="47"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -559,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="89" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -628,6 +616,9 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="7">
+        <v>42188</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -642,6 +633,9 @@
       <c r="E4" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="7">
+        <v>42221</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -656,2356 +650,2542 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="G5" s="7">
+        <v>42214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>2016</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
         <v>275</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>42618</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>42618</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>2016</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3">
         <v>4087</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>42575</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>2016</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1">
         <v>377</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>42621</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>42621</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>2016</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1">
         <v>100</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>42621</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>42621</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
+    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
         <v>2016</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5">
         <v>3</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>42472</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>42472</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>2016</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>37</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>42509</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>42531</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>2016</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>34</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>42500</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>42531</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>2016</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>164</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>42371</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>40910</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>2016</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>167</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>42376</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <v>40915</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>2016</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>165</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>42375</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="4">
         <v>40914</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5">
         <v>4916</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <v>43043</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="6">
         <v>43043</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="C17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="5">
         <v>81</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <v>43020</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="6">
         <v>43020</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="7" t="s">
+    <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5">
         <v>84</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="6">
         <v>43020</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="6">
         <v>43020</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="5">
         <v>87</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <v>43021</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <v>43021</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B20" s="7" t="s">
+    <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="C20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5">
         <v>90</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>43021</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <v>43021</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="C21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="5">
         <v>67</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <v>42954</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6">
         <v>42954</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="C22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5">
         <v>73</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6">
         <v>42956</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="6">
         <v>42956</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B23" s="7" t="s">
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="5">
         <v>61</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="6">
         <v>42951</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="6">
         <v>42951</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B24" s="7" t="s">
+    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="C24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5">
         <v>64</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="6">
         <v>42951</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="6">
         <v>42951</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B25" s="7" t="s">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="C25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="5">
         <v>79</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="6">
         <v>42957</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="6">
         <v>42957</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B26" s="7" t="s">
+    <row r="26" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="C26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="5">
         <v>157</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="6">
         <v>43015</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="6">
         <v>43015</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B27" s="7" t="s">
+    <row r="27" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="C27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="5">
         <v>160</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="6">
         <v>43017</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="6">
         <v>43017</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B28" s="7" t="s">
+    <row r="28" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="C28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="5">
         <v>145</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="6">
         <v>43013</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="6">
         <v>43013</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B29" s="7" t="s">
+    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="C29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="5">
         <v>184</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="6">
         <v>43027</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="6">
         <v>43027</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B30" s="7" t="s">
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="7">
+      <c r="C30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="5">
         <v>193</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="6">
         <v>43029</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="6">
         <v>43029</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B31" s="7" t="s">
+    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="C31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="5">
         <v>223</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="6">
         <v>43036</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="6">
         <v>43036</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B32" s="7" t="s">
+    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="C32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="5">
         <v>226</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="6">
         <v>43037</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="6">
         <v>43037</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B33" s="7" t="s">
+    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="C33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="5">
         <v>172</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="6">
         <v>43019</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="6">
         <v>43019</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B34" s="7" t="s">
+    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="C34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="5">
         <v>175</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="6">
         <v>43020</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="6">
         <v>43020</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B35" s="7" t="s">
+    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="7">
+      <c r="C35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="5">
         <v>166</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="6">
         <v>43019</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="6">
         <v>43019</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B36" s="7" t="s">
+    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="7">
+      <c r="C36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="5">
         <v>181</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="6">
         <v>43027</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="6">
         <v>43027</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B37" s="7" t="s">
+    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="7">
+      <c r="C37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="5">
         <v>187</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="6">
         <v>43027</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="6">
         <v>43027</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B38" s="7" t="s">
+    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="7">
+      <c r="C38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="5">
         <v>163</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="6">
         <v>43018</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="6">
         <v>43018</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B39" s="7" t="s">
+    <row r="39" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="7">
+      <c r="C39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="5">
         <v>154</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="6">
         <v>43014</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="6">
         <v>43014</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B40" s="7" t="s">
+    <row r="40" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="7">
+      <c r="C40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="5">
         <v>178</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="6">
         <v>43021</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="6">
         <v>43021</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B41" s="7" t="s">
+    <row r="41" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="7">
+      <c r="C41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="5">
         <v>217</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="6">
         <v>43032</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="6">
         <v>43032</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B42" s="7" t="s">
+    <row r="42" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="7">
+      <c r="C42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="5">
         <v>220</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="6">
         <v>43034</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="6">
         <v>43034</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B43" s="1" t="s">
+    <row r="43" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="C43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="5">
         <v>10060220</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="6">
         <v>43014</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="6">
         <v>43014</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B44" s="1" t="s">
+    <row r="44" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="C44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="5">
         <v>10130256</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="6">
         <v>43021</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="6">
         <v>43021</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B45" s="1" t="s">
+    <row r="45" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="C45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="5">
         <v>10130259</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="6">
         <v>43021</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="6">
         <v>43021</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B46" s="1" t="s">
+    <row r="46" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="C46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="5">
         <v>10140268</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="6">
         <v>43022</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="6">
         <v>43022</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B47" s="1" t="s">
+    <row r="47" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="C47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="5">
         <v>10270340</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="6">
         <v>43035</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="6">
         <v>43035</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B48" s="1" t="s">
+    <row r="48" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="C48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="5">
         <v>10270343</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="6">
         <v>43035</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="6">
         <v>43035</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B49" s="1" t="s">
+    <row r="49" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="C49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="5">
         <v>10130262</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="6">
         <v>43021</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="6">
         <v>43021</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B50" s="1" t="s">
+    <row r="50" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="C50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="5">
         <v>10040217</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="6">
         <v>43012</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="6">
         <v>43012</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B51" s="1" t="s">
+    <row r="51" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="C51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="5">
         <v>10080223</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="6">
         <v>43016</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="6">
         <v>43016</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B52" s="1" t="s">
+    <row r="52" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="C52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="5">
         <v>10160280</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="6">
         <v>43024</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="6">
         <v>43024</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B53" s="1" t="s">
+    <row r="53" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="C53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="5">
         <v>10220301</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="6">
         <v>43030</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="6">
         <v>43030</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B54" s="1" t="s">
+    <row r="54" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="1">
+      <c r="C54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="5">
         <v>10270337</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="6">
         <v>43035</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="6">
         <v>43035</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B55" s="1" t="s">
+    <row r="55" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="1">
+      <c r="C55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="5">
         <v>10310355</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="6">
         <v>43039</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="6">
         <v>43039</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B56" s="1" t="s">
+    <row r="56" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="C56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="5">
         <v>10120244</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="6">
         <v>43020</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="6">
         <v>43020</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B57" s="1" t="s">
+    <row r="57" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="C57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="5">
         <v>10160284</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="6">
         <v>43024</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="6">
         <v>43024</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B58" s="1" t="s">
+    <row r="58" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="1">
+      <c r="C58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="5">
         <v>10130266</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="6">
         <v>43021</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="6">
         <v>43021</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B59" s="1" t="s">
+    <row r="59" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="C59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="5">
         <v>10160275</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="6">
         <v>43024</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="6">
         <v>43024</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B60" s="1" t="s">
+    <row r="60" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="1">
+      <c r="C60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="5">
         <v>10210295</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="6">
         <v>43029</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="6">
         <v>43029</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B61" s="1" t="s">
+    <row r="61" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="1">
+      <c r="C61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="5">
         <v>10250304</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="6">
         <v>43033</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="6">
         <v>43033</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B62" s="1" t="s">
+    <row r="62" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="C62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="5">
         <v>10250307</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="6">
         <v>43033</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="6">
         <v>43033</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B63" s="1" t="s">
+    <row r="63" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="C63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="5">
         <v>10290346</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="6">
         <v>43037</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="6">
         <v>43037</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B64" s="1" t="s">
+    <row r="64" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="C64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="5">
         <v>10220298</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="6">
         <v>43030</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="6">
         <v>43030</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B65" s="1" t="s">
+    <row r="65" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="C65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="5">
         <v>10120247</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="6">
         <v>43020</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="6">
         <v>43020</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B66" s="1" t="s">
+    <row r="66" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="1">
+      <c r="C66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="5">
         <v>10110243</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="6">
         <v>43019</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="6">
         <v>43019</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="5">
-        <v>2017</v>
-      </c>
-      <c r="B67" s="5" t="s">
+    <row r="67" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="5">
+      <c r="C67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="3">
         <v>10260313</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="4">
         <v>43035</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67" s="4">
         <v>43034</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="I67" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="5">
-        <v>2017</v>
-      </c>
-      <c r="B68" s="5" t="s">
+    <row r="68" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="5">
+      <c r="C68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="3">
         <v>10080232</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="4">
         <v>43018</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I68" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B69" s="1" t="s">
+    <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="1">
+      <c r="C69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="3">
         <v>451</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="4">
         <v>43102</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B70" s="1" t="s">
+      <c r="G69" s="4">
+        <v>43102</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="C70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="5">
         <v>151</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="6">
         <v>43005</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="G70" s="6">
+        <v>43005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="C71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="5">
         <v>274</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="6">
         <v>43027</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="G71" s="6">
+        <v>43027</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="1">
+      <c r="C72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="5">
         <v>202</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="6">
         <v>43010</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="G72" s="6">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="1">
+      <c r="C73" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="5">
         <v>208</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="6">
         <v>43011</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="G73" s="6">
+        <v>43011</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="1">
+      <c r="C74" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="5">
         <v>199</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="6">
         <v>43010</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B75" s="1" t="s">
+      <c r="G74" s="6">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="1">
+      <c r="C75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="5">
         <v>94</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="6">
         <v>43001</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B76" s="1" t="s">
+      <c r="G75" s="6">
+        <v>43001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="1">
+      <c r="C76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="5">
         <v>103</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="6">
         <v>43002</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B77" s="1" t="s">
+      <c r="G76" s="6">
+        <v>43002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="1">
+      <c r="C77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="5">
         <v>112</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="6">
         <v>43002</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B78" s="1" t="s">
+      <c r="G77" s="6">
+        <v>43002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="1">
+      <c r="C78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="5">
         <v>144</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="6">
         <v>43003</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B79" s="1" t="s">
+      <c r="G78" s="6">
+        <v>43003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="1">
+      <c r="C79" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="5">
         <v>157</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="6">
         <v>43006</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B80" s="1" t="s">
+      <c r="G79" s="6">
+        <v>43006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="1">
+      <c r="C80" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="5">
         <v>160</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="6">
         <v>43006</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B81" s="1" t="s">
+      <c r="G80" s="6">
+        <v>43006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="1">
+      <c r="C81" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="5">
         <v>163</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="6">
         <v>43007</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="G81" s="6">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="1">
+      <c r="C82" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="5">
         <v>175</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="6">
         <v>43007</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B83" s="1" t="s">
+      <c r="G82" s="6">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="1">
+      <c r="C83" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="5">
         <v>185</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="6">
         <v>43007</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B84" s="1" t="s">
+      <c r="G83" s="6">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="1">
+      <c r="C84" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="5">
         <v>238</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="6">
         <v>43021</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="G84" s="6">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="1">
+      <c r="C85" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="5">
         <v>244</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="6">
         <v>43022</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B86" s="1" t="s">
+      <c r="G85" s="6">
+        <v>43022</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="1">
+      <c r="C86" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="5">
         <v>250</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="6">
         <v>43024</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="G86" s="6">
+        <v>43024</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" s="1">
+      <c r="C87" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="5">
         <v>253</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="6">
         <v>43025</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B88" s="1" t="s">
+      <c r="G87" s="6">
+        <v>43025</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" s="1">
+      <c r="C88" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="5">
         <v>259</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="6">
         <v>43025</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="G88" s="6">
+        <v>43025</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="1">
+      <c r="C89" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="5">
         <v>277</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="6">
         <v>43028</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B90" s="1" t="s">
+      <c r="G89" s="6">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="1">
+      <c r="C90" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="5">
         <v>286</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="6">
         <v>43028</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B91" s="1" t="s">
+      <c r="G90" s="6">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="1">
+      <c r="C91" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="5">
         <v>136</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="6">
         <v>43003</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="G91" s="6">
+        <v>43003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="1">
+      <c r="C92" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="5">
         <v>220</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="6">
         <v>43014</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B93" s="1" t="s">
+      <c r="G92" s="6">
+        <v>43014</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="1">
+      <c r="C93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="5">
         <v>271</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="6">
         <v>43026</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B94" s="1" t="s">
+      <c r="G93" s="6">
+        <v>43026</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94" s="1">
+      <c r="C94" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="5">
         <v>37</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="6">
         <v>42923</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="G94" s="6">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="1">
+      <c r="C95" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="5">
         <v>1</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="6">
         <v>42915</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B96" s="1" t="s">
+      <c r="G95" s="6">
+        <v>42915</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" s="1">
+      <c r="C96" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="5">
         <v>5</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="6">
         <v>42917</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="G96" s="6">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97" s="1">
+      <c r="C97" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="5">
         <v>10</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="6">
         <v>42919</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B98" s="1" t="s">
+      <c r="G97" s="6">
+        <v>42919</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" s="1">
+      <c r="C98" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="5">
         <v>28</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="6">
         <v>42923</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B99" s="1" t="s">
+      <c r="G98" s="6">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" s="1">
+      <c r="C99" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="5">
         <v>22</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="6">
         <v>42922</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="G99" s="6">
+        <v>42922</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" s="1">
+      <c r="C100" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="5">
         <v>7</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="6">
         <v>42917</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B101" s="1" t="s">
+      <c r="G100" s="6">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" s="1">
+      <c r="C101" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="5">
         <v>19</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="6">
         <v>42922</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B102" s="1" t="s">
+      <c r="G101" s="6">
+        <v>42922</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" s="1">
+      <c r="C102" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="5">
         <v>16</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102" s="6">
         <v>42922</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B103" s="1" t="s">
+      <c r="G102" s="6">
+        <v>42922</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" s="1">
+      <c r="C103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="5">
         <v>169</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="6">
         <v>43030</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B104" s="1" t="s">
+      <c r="G103" s="6">
+        <v>43030</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104" s="1">
+      <c r="C104" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="5">
         <v>172</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="6">
         <v>43034</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B105" s="1" t="s">
+      <c r="G104" s="6">
+        <v>43034</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105" s="1">
+      <c r="C105" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="5">
         <v>136</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="6">
         <v>43016</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B106" s="1" t="s">
+      <c r="G105" s="6">
+        <v>43016</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" s="1">
+      <c r="C106" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="5">
         <v>182</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="6">
         <v>43037</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B107" s="1" t="s">
+      <c r="G106" s="6">
+        <v>43037</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" s="1">
+      <c r="C107" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="5">
         <v>152</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="6">
         <v>43024</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B108" s="1" t="s">
+      <c r="G107" s="6">
+        <v>43024</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" s="1">
+      <c r="C108" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="5">
         <v>157</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108" s="6">
         <v>43026</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B109" s="1" t="s">
+      <c r="G108" s="6">
+        <v>43026</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="1">
+      <c r="C109" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="5">
         <v>148</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="6">
         <v>43020</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B110" s="1" t="s">
+      <c r="G109" s="6">
+        <v>43020</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" s="1">
+      <c r="C110" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="5">
         <v>160</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="6">
         <v>43028</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B111" s="1" t="s">
+      <c r="G110" s="6">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" s="1">
+      <c r="C111" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="5">
         <v>163</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111" s="6">
         <v>43030</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B112" s="1" t="s">
+      <c r="G111" s="6">
+        <v>43030</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" s="1">
+      <c r="C112" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="5">
         <v>55</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="6">
         <v>43024</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B113" s="1" t="s">
+      <c r="G112" s="6">
+        <v>43024</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="5">
         <v>35</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="6">
         <v>42995</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B114" s="1" t="s">
+      <c r="G113" s="6">
+        <v>42995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="5">
         <v>47</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114" s="6">
         <v>42998</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B115" s="1" t="s">
+      <c r="G114" s="6">
+        <v>42998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="5">
         <v>102</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115" s="6">
         <v>43018</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B116" s="1" t="s">
+      <c r="G115" s="6">
+        <v>43018</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="5">
         <v>10</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116" s="6">
         <v>42982</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B117" s="1" t="s">
+      <c r="G116" s="6">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117" s="5">
         <v>67</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117" s="6">
         <v>43006</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B118" s="1" t="s">
+      <c r="G117" s="6">
+        <v>43006</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118" s="5">
         <v>95</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118" s="6">
         <v>43016</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B119" s="1" t="s">
+      <c r="G118" s="6">
+        <v>43016</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="5">
         <v>14</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119" s="6">
         <v>42982</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B120" s="1" t="s">
+      <c r="G119" s="6">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120" s="5">
         <v>27</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120" s="6">
         <v>42992</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B121" s="1" t="s">
+      <c r="G120" s="6">
+        <v>42992</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121" s="5">
         <v>69</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121" s="6">
         <v>43007</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B122" s="1" t="s">
+      <c r="G121" s="6">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122" s="5">
         <v>51</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122" s="6">
         <v>43000</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B123" s="1" t="s">
+      <c r="G122" s="6">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123" s="5">
         <v>106</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123" s="6">
         <v>43019</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B124" s="1" t="s">
+      <c r="G123" s="6">
+        <v>43019</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124" s="5">
         <v>37</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F124" s="6">
         <v>42996</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B125" s="1" t="s">
+      <c r="G124" s="6">
+        <v>42996</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125" s="5">
         <v>59</v>
       </c>
-      <c r="F125" s="2">
+      <c r="F125" s="6">
         <v>43002</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B126" s="1" t="s">
+      <c r="G125" s="6">
+        <v>43002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126" s="5">
         <v>91</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F126" s="6">
         <v>43011</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B127" s="1" t="s">
+      <c r="G126" s="6">
+        <v>43011</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127" s="5">
         <v>5</v>
       </c>
-      <c r="F127" s="2">
+      <c r="F127" s="6">
         <v>42982</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B128" s="1" t="s">
+      <c r="G127" s="6">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128" s="5">
         <v>136</v>
       </c>
-      <c r="F128" s="2">
+      <c r="F128" s="6">
+        <v>43028</v>
+      </c>
+      <c r="G128" s="6">
         <v>43028</v>
       </c>
     </row>

--- a/Kelly_errors_to_fix.xlsx
+++ b/Kelly_errors_to_fix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelly\Documents\Belize-MP-Bruno-Boos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elise/Desktop/MP/Belize-MP-Bruno-Boos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3020643-3A54-40D5-9F42-4A4A33ABE219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D143D99-C3FA-7E42-AF40-723F70D328C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11470" yWindow="100" windowWidth="7720" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11480" yWindow="500" windowWidth="15740" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="50">
   <si>
     <t>Year</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>I think the year is supposed to be 2017</t>
+  </si>
+  <si>
+    <t>This is pic 10100232</t>
   </si>
 </sst>
 </file>
@@ -545,22 +548,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="76" workbookViewId="0">
+      <selection activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +592,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -603,7 +606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -620,7 +623,7 @@
         <v>42188</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -637,7 +640,7 @@
         <v>42221</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -654,7 +657,7 @@
         <v>42214</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2016</v>
       </c>
@@ -680,7 +683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -706,7 +709,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2016</v>
       </c>
@@ -732,7 +735,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2016</v>
       </c>
@@ -758,7 +761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>2016</v>
       </c>
@@ -781,7 +784,7 @@
         <v>42472</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2016</v>
       </c>
@@ -807,7 +810,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2016</v>
       </c>
@@ -833,7 +836,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2016</v>
       </c>
@@ -859,7 +862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2016</v>
       </c>
@@ -882,7 +885,7 @@
         <v>40915</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2016</v>
       </c>
@@ -905,7 +908,7 @@
         <v>40914</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>2017</v>
       </c>
@@ -928,7 +931,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>2017</v>
       </c>
@@ -951,7 +954,7 @@
         <v>43020</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>2017</v>
       </c>
@@ -974,7 +977,7 @@
         <v>43020</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>2017</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>43021</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>2017</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>43021</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>2017</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>42954</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>2017</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>42956</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>2017</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>42951</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>2017</v>
       </c>
@@ -1100,7 +1103,7 @@
         <v>42951</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>2017</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>42957</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>2017</v>
       </c>
@@ -1140,7 +1143,7 @@
         <v>43015</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>2017</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>43017</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>2017</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>43013</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>2017</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>43027</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>2017</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>43029</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>2017</v>
       </c>
@@ -1240,7 +1243,7 @@
         <v>43036</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>2017</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>43037</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>2017</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>43019</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>2017</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>43020</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>2017</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>43019</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>2017</v>
       </c>
@@ -1340,7 +1343,7 @@
         <v>43027</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>2017</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>43027</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>2017</v>
       </c>
@@ -1380,7 +1383,7 @@
         <v>43018</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>2017</v>
       </c>
@@ -1400,7 +1403,7 @@
         <v>43014</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>2017</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>43021</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>2017</v>
       </c>
@@ -1440,7 +1443,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>2017</v>
       </c>
@@ -1460,7 +1463,7 @@
         <v>43034</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>2017</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>43014</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>2017</v>
       </c>
@@ -1500,7 +1503,7 @@
         <v>43021</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>2017</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>43021</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>2017</v>
       </c>
@@ -1540,7 +1543,7 @@
         <v>43022</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>2017</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>43035</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>2017</v>
       </c>
@@ -1580,7 +1583,7 @@
         <v>43035</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>2017</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>43021</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>2017</v>
       </c>
@@ -1620,7 +1623,7 @@
         <v>43012</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>2017</v>
       </c>
@@ -1640,7 +1643,7 @@
         <v>43016</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>2017</v>
       </c>
@@ -1660,7 +1663,7 @@
         <v>43024</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>2017</v>
       </c>
@@ -1680,7 +1683,7 @@
         <v>43030</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>2017</v>
       </c>
@@ -1700,7 +1703,7 @@
         <v>43035</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>2017</v>
       </c>
@@ -1720,7 +1723,7 @@
         <v>43039</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>2017</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>43020</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>2017</v>
       </c>
@@ -1760,7 +1763,7 @@
         <v>43024</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>2017</v>
       </c>
@@ -1780,7 +1783,7 @@
         <v>43021</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>2017</v>
       </c>
@@ -1800,7 +1803,7 @@
         <v>43024</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>2017</v>
       </c>
@@ -1820,7 +1823,7 @@
         <v>43029</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>2017</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>43033</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>2017</v>
       </c>
@@ -1860,7 +1863,7 @@
         <v>43033</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>2017</v>
       </c>
@@ -1880,7 +1883,7 @@
         <v>43037</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>2017</v>
       </c>
@@ -1900,7 +1903,7 @@
         <v>43030</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>2017</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>43020</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>2017</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>43019</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>2017</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>2017</v>
       </c>
@@ -1985,8 +1988,11 @@
       <c r="I68" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M68" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>2017</v>
       </c>
@@ -2009,7 +2015,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>2017</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>43005</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>2017</v>
       </c>
@@ -2049,7 +2055,7 @@
         <v>43027</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>2017</v>
       </c>
@@ -2069,7 +2075,7 @@
         <v>43010</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>2017</v>
       </c>
@@ -2089,7 +2095,7 @@
         <v>43011</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>2017</v>
       </c>
@@ -2109,7 +2115,7 @@
         <v>43010</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>2017</v>
       </c>
@@ -2129,7 +2135,7 @@
         <v>43001</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>2017</v>
       </c>
@@ -2149,7 +2155,7 @@
         <v>43002</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>2017</v>
       </c>
@@ -2169,7 +2175,7 @@
         <v>43002</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>2017</v>
       </c>
@@ -2189,7 +2195,7 @@
         <v>43003</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>2017</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>43006</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>2017</v>
       </c>
@@ -2229,7 +2235,7 @@
         <v>43006</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>2017</v>
       </c>
@@ -2249,7 +2255,7 @@
         <v>43007</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>2017</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>43007</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>2017</v>
       </c>
@@ -2289,7 +2295,7 @@
         <v>43007</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>2017</v>
       </c>
@@ -2309,7 +2315,7 @@
         <v>43021</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>2017</v>
       </c>
@@ -2329,7 +2335,7 @@
         <v>43022</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>2017</v>
       </c>
@@ -2349,7 +2355,7 @@
         <v>43024</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>2017</v>
       </c>
@@ -2369,7 +2375,7 @@
         <v>43025</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>2017</v>
       </c>
@@ -2389,7 +2395,7 @@
         <v>43025</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>2017</v>
       </c>
@@ -2409,7 +2415,7 @@
         <v>43028</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>2017</v>
       </c>
@@ -2429,7 +2435,7 @@
         <v>43028</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>2017</v>
       </c>
@@ -2449,7 +2455,7 @@
         <v>43003</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>2017</v>
       </c>
@@ -2469,7 +2475,7 @@
         <v>43014</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>2017</v>
       </c>
@@ -2489,7 +2495,7 @@
         <v>43026</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>2017</v>
       </c>
@@ -2509,7 +2515,7 @@
         <v>42923</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>2017</v>
       </c>
@@ -2529,7 +2535,7 @@
         <v>42915</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>2017</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>2017</v>
       </c>
@@ -2569,7 +2575,7 @@
         <v>42919</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>2017</v>
       </c>
@@ -2589,7 +2595,7 @@
         <v>42923</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>2017</v>
       </c>
@@ -2609,7 +2615,7 @@
         <v>42922</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>2017</v>
       </c>
@@ -2629,7 +2635,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>2017</v>
       </c>
@@ -2649,7 +2655,7 @@
         <v>42922</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>2017</v>
       </c>
@@ -2669,7 +2675,7 @@
         <v>42922</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>2017</v>
       </c>
@@ -2689,7 +2695,7 @@
         <v>43030</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>2017</v>
       </c>
@@ -2709,7 +2715,7 @@
         <v>43034</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>2017</v>
       </c>
@@ -2729,7 +2735,7 @@
         <v>43016</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>2017</v>
       </c>
@@ -2749,7 +2755,7 @@
         <v>43037</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>2017</v>
       </c>
@@ -2769,7 +2775,7 @@
         <v>43024</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>2017</v>
       </c>
@@ -2789,7 +2795,7 @@
         <v>43026</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>2017</v>
       </c>
@@ -2809,7 +2815,7 @@
         <v>43020</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>2017</v>
       </c>
@@ -2829,7 +2835,7 @@
         <v>43028</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>2017</v>
       </c>
@@ -2849,7 +2855,7 @@
         <v>43030</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>2017</v>
       </c>
@@ -2869,7 +2875,7 @@
         <v>43024</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>2017</v>
       </c>
@@ -2889,7 +2895,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>2017</v>
       </c>
@@ -2909,7 +2915,7 @@
         <v>42998</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>2017</v>
       </c>
@@ -2929,7 +2935,7 @@
         <v>43018</v>
       </c>
     </row>
-    <row r="116" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>2017</v>
       </c>
@@ -2949,7 +2955,7 @@
         <v>42982</v>
       </c>
     </row>
-    <row r="117" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>2017</v>
       </c>
@@ -2969,7 +2975,7 @@
         <v>43006</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>2017</v>
       </c>
@@ -2989,7 +2995,7 @@
         <v>43016</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>2017</v>
       </c>
@@ -3009,7 +3015,7 @@
         <v>42982</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>2017</v>
       </c>
@@ -3029,7 +3035,7 @@
         <v>42992</v>
       </c>
     </row>
-    <row r="121" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>2017</v>
       </c>
@@ -3049,7 +3055,7 @@
         <v>43007</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>2017</v>
       </c>
@@ -3069,7 +3075,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="123" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>2017</v>
       </c>
@@ -3089,7 +3095,7 @@
         <v>43019</v>
       </c>
     </row>
-    <row r="124" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>2017</v>
       </c>
@@ -3109,7 +3115,7 @@
         <v>42996</v>
       </c>
     </row>
-    <row r="125" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>2017</v>
       </c>
@@ -3129,7 +3135,7 @@
         <v>43002</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>2017</v>
       </c>
@@ -3149,7 +3155,7 @@
         <v>43011</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>2017</v>
       </c>
@@ -3169,7 +3175,7 @@
         <v>42982</v>
       </c>
     </row>
-    <row r="128" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>2017</v>
       </c>

--- a/Kelly_errors_to_fix.xlsx
+++ b/Kelly_errors_to_fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elise/Desktop/MP/Belize-MP-Bruno-Boos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D143D99-C3FA-7E42-AF40-723F70D328C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F5E3A3-AEF5-F945-A85A-93FF2694F1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11480" yWindow="500" windowWidth="15740" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="51">
   <si>
     <t>Year</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>This is pic 10100232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think 2018 is right </t>
   </si>
 </sst>
 </file>
@@ -550,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="76" workbookViewId="0">
-      <selection activeCell="M68" sqref="M68"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="76" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2014,6 +2017,9 @@
       <c r="I69" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="M69" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="70" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">

--- a/Kelly_errors_to_fix.xlsx
+++ b/Kelly_errors_to_fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elise/Desktop/MP/Belize-MP-Bruno-Boos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F5E3A3-AEF5-F945-A85A-93FF2694F1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66F1234-99C8-A542-8040-CABA4F79C79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11480" yWindow="500" windowWidth="15740" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="55">
   <si>
     <t>Year</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Camera</t>
   </si>
   <si>
-    <t>510C</t>
-  </si>
-  <si>
     <t>Month 10 should be 9</t>
   </si>
   <si>
@@ -178,6 +175,21 @@
   </si>
   <si>
     <t xml:space="preserve">I think 2018 is right </t>
+  </si>
+  <si>
+    <t>510E</t>
+  </si>
+  <si>
+    <t>508H</t>
+  </si>
+  <si>
+    <t>day and month switched -&gt; month should be 12 and day 11</t>
+  </si>
+  <si>
+    <t>511G</t>
+  </si>
+  <si>
+    <t>missing camera data</t>
   </si>
 </sst>
 </file>
@@ -551,17 +563,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="76" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -574,25 +586,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -600,13 +612,13 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -614,13 +626,13 @@
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="7">
         <v>42188</v>
@@ -631,13 +643,13 @@
         <v>2015</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="7">
         <v>42221</v>
@@ -648,195 +660,170 @@
         <v>2015</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="7">
         <v>42214</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1">
-        <v>275</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2">
-        <v>42618</v>
-      </c>
-      <c r="G6" s="2">
-        <v>42618</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4087</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4">
-        <v>42575</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>43</v>
-      </c>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2015</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>1691</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2016</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>275</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2">
+        <v>42618</v>
+      </c>
+      <c r="G8" s="2">
+        <v>42618</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4087</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4">
+        <v>42575</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>377</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2">
+        <v>42621</v>
+      </c>
+      <c r="G10" s="2">
+        <v>42621</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1">
-        <v>377</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2">
         <v>42621</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G11" s="2">
         <v>42621</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="H11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>2016</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1">
-        <v>100</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2">
-        <v>42621</v>
-      </c>
-      <c r="G9" s="2">
-        <v>42621</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5">
         <v>3</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="E12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="6">
         <v>42472</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G12" s="6">
         <v>42472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3">
-        <v>37</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="4">
-        <v>42509</v>
-      </c>
-      <c r="G11" s="4">
-        <v>42531</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3">
-        <v>34</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="4">
-        <v>42500</v>
-      </c>
-      <c r="G12" s="4">
-        <v>42531</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -844,25 +831,25 @@
         <v>2016</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3">
-        <v>164</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F13" s="4">
-        <v>42371</v>
+        <v>42509</v>
       </c>
       <c r="G13" s="4">
-        <v>40910</v>
+        <v>42531</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -870,22 +857,25 @@
         <v>2016</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" s="4">
-        <v>42376</v>
+        <v>42500</v>
       </c>
       <c r="G14" s="4">
-        <v>40915</v>
+        <v>42531</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -893,68 +883,71 @@
         <v>2016</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>164</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4">
+        <v>42371</v>
+      </c>
+      <c r="G15" s="4">
+        <v>40910</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>167</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="4">
+        <v>42376</v>
+      </c>
+      <c r="G16" s="4">
+        <v>40915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3">
         <v>165</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="E17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="4">
         <v>42375</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G17" s="4">
         <v>40914</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>2017</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="5">
-        <v>4916</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="6">
-        <v>43043</v>
-      </c>
-      <c r="G16" s="6">
-        <v>43043</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>2017</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="5">
-        <v>81</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="6">
-        <v>43020</v>
-      </c>
-      <c r="G17" s="6">
-        <v>43020</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -962,22 +955,22 @@
         <v>2017</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="5">
-        <v>84</v>
+        <v>4916</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" s="6">
-        <v>43020</v>
+        <v>43043</v>
       </c>
       <c r="G18" s="6">
-        <v>43020</v>
+        <v>43043</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -985,22 +978,22 @@
         <v>2017</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="5">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="6">
-        <v>43021</v>
+        <v>43020</v>
       </c>
       <c r="G19" s="6">
-        <v>43021</v>
+        <v>43020</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1008,22 +1001,22 @@
         <v>2017</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="5">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F20" s="6">
-        <v>43021</v>
+        <v>43020</v>
       </c>
       <c r="G20" s="6">
-        <v>43021</v>
+        <v>43020</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1031,19 +1024,22 @@
         <v>2017</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="5">
-        <v>67</v>
+        <v>87</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="F21" s="6">
-        <v>42954</v>
+        <v>43021</v>
       </c>
       <c r="G21" s="6">
-        <v>42954</v>
+        <v>43021</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1051,19 +1047,22 @@
         <v>2017</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="5">
-        <v>73</v>
+        <v>90</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="F22" s="6">
-        <v>42956</v>
+        <v>43021</v>
       </c>
       <c r="G22" s="6">
-        <v>42956</v>
+        <v>43021</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1071,19 +1070,19 @@
         <v>2017</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="5">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F23" s="6">
-        <v>42951</v>
+        <v>42954</v>
       </c>
       <c r="G23" s="6">
-        <v>42951</v>
+        <v>42954</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1091,19 +1090,19 @@
         <v>2017</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="5">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F24" s="6">
-        <v>42951</v>
+        <v>42956</v>
       </c>
       <c r="G24" s="6">
-        <v>42951</v>
+        <v>42956</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1111,19 +1110,19 @@
         <v>2017</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="5">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F25" s="6">
-        <v>42957</v>
+        <v>42951</v>
       </c>
       <c r="G25" s="6">
-        <v>42957</v>
+        <v>42951</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1131,19 +1130,19 @@
         <v>2017</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="5">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="F26" s="6">
-        <v>43015</v>
+        <v>42951</v>
       </c>
       <c r="G26" s="6">
-        <v>43015</v>
+        <v>42951</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1151,19 +1150,19 @@
         <v>2017</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="5">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="F27" s="6">
-        <v>43017</v>
+        <v>42957</v>
       </c>
       <c r="G27" s="6">
-        <v>43017</v>
+        <v>42957</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1171,19 +1170,19 @@
         <v>2017</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="5">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="F28" s="6">
-        <v>43013</v>
+        <v>43015</v>
       </c>
       <c r="G28" s="6">
-        <v>43013</v>
+        <v>43015</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1191,19 +1190,19 @@
         <v>2017</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="5">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="F29" s="6">
-        <v>43027</v>
+        <v>43017</v>
       </c>
       <c r="G29" s="6">
-        <v>43027</v>
+        <v>43017</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1211,19 +1210,19 @@
         <v>2017</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="5">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="F30" s="6">
-        <v>43029</v>
+        <v>43013</v>
       </c>
       <c r="G30" s="6">
-        <v>43029</v>
+        <v>43013</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1231,19 +1230,19 @@
         <v>2017</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="5">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="F31" s="6">
-        <v>43036</v>
+        <v>43027</v>
       </c>
       <c r="G31" s="6">
-        <v>43036</v>
+        <v>43027</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1251,19 +1250,19 @@
         <v>2017</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="5">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="F32" s="6">
-        <v>43037</v>
+        <v>43029</v>
       </c>
       <c r="G32" s="6">
-        <v>43037</v>
+        <v>43029</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1271,19 +1270,19 @@
         <v>2017</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="5">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="F33" s="6">
-        <v>43019</v>
+        <v>43036</v>
       </c>
       <c r="G33" s="6">
-        <v>43019</v>
+        <v>43036</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1291,19 +1290,19 @@
         <v>2017</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="5">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="F34" s="6">
-        <v>43020</v>
+        <v>43037</v>
       </c>
       <c r="G34" s="6">
-        <v>43020</v>
+        <v>43037</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1311,13 +1310,13 @@
         <v>2017</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="5">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F35" s="6">
         <v>43019</v>
@@ -1331,19 +1330,19 @@
         <v>2017</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="5">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F36" s="6">
-        <v>43027</v>
+        <v>43020</v>
       </c>
       <c r="G36" s="6">
-        <v>43027</v>
+        <v>43020</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1351,19 +1350,19 @@
         <v>2017</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" s="5">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="F37" s="6">
-        <v>43027</v>
+        <v>43019</v>
       </c>
       <c r="G37" s="6">
-        <v>43027</v>
+        <v>43019</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1371,19 +1370,19 @@
         <v>2017</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="5">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="F38" s="6">
-        <v>43018</v>
+        <v>43027</v>
       </c>
       <c r="G38" s="6">
-        <v>43018</v>
+        <v>43027</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1391,19 +1390,19 @@
         <v>2017</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" s="5">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="F39" s="6">
-        <v>43014</v>
+        <v>43027</v>
       </c>
       <c r="G39" s="6">
-        <v>43014</v>
+        <v>43027</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1411,19 +1410,19 @@
         <v>2017</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40" s="5">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F40" s="6">
-        <v>43021</v>
+        <v>43018</v>
       </c>
       <c r="G40" s="6">
-        <v>43021</v>
+        <v>43018</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1431,19 +1430,19 @@
         <v>2017</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" s="5">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="F41" s="6">
-        <v>43032</v>
+        <v>43014</v>
       </c>
       <c r="G41" s="6">
-        <v>43032</v>
+        <v>43014</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1451,19 +1450,19 @@
         <v>2017</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" s="5">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="F42" s="6">
-        <v>43034</v>
+        <v>43021</v>
       </c>
       <c r="G42" s="6">
-        <v>43034</v>
+        <v>43021</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1471,19 +1470,19 @@
         <v>2017</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" s="5">
-        <v>10060220</v>
+        <v>217</v>
       </c>
       <c r="F43" s="6">
-        <v>43014</v>
+        <v>43032</v>
       </c>
       <c r="G43" s="6">
-        <v>43014</v>
+        <v>43032</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1491,19 +1490,19 @@
         <v>2017</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" s="5">
-        <v>10130256</v>
+        <v>220</v>
       </c>
       <c r="F44" s="6">
-        <v>43021</v>
+        <v>43034</v>
       </c>
       <c r="G44" s="6">
-        <v>43021</v>
+        <v>43034</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1511,19 +1510,19 @@
         <v>2017</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" s="5">
-        <v>10130259</v>
+        <v>10060220</v>
       </c>
       <c r="F45" s="6">
-        <v>43021</v>
+        <v>43014</v>
       </c>
       <c r="G45" s="6">
-        <v>43021</v>
+        <v>43014</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1531,19 +1530,19 @@
         <v>2017</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" s="5">
-        <v>10140268</v>
+        <v>10130256</v>
       </c>
       <c r="F46" s="6">
-        <v>43022</v>
+        <v>43021</v>
       </c>
       <c r="G46" s="6">
-        <v>43022</v>
+        <v>43021</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1551,19 +1550,19 @@
         <v>2017</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47" s="5">
-        <v>10270340</v>
+        <v>10130259</v>
       </c>
       <c r="F47" s="6">
-        <v>43035</v>
+        <v>43021</v>
       </c>
       <c r="G47" s="6">
-        <v>43035</v>
+        <v>43021</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1571,19 +1570,19 @@
         <v>2017</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D48" s="5">
-        <v>10270343</v>
+        <v>10140268</v>
       </c>
       <c r="F48" s="6">
-        <v>43035</v>
+        <v>43022</v>
       </c>
       <c r="G48" s="6">
-        <v>43035</v>
+        <v>43022</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1591,19 +1590,19 @@
         <v>2017</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49" s="5">
-        <v>10130262</v>
+        <v>10270340</v>
       </c>
       <c r="F49" s="6">
-        <v>43021</v>
+        <v>43035</v>
       </c>
       <c r="G49" s="6">
-        <v>43021</v>
+        <v>43035</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1611,19 +1610,19 @@
         <v>2017</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" s="5">
-        <v>10040217</v>
+        <v>10270343</v>
       </c>
       <c r="F50" s="6">
-        <v>43012</v>
+        <v>43035</v>
       </c>
       <c r="G50" s="6">
-        <v>43012</v>
+        <v>43035</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1631,19 +1630,19 @@
         <v>2017</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" s="5">
-        <v>10080223</v>
+        <v>10130262</v>
       </c>
       <c r="F51" s="6">
-        <v>43016</v>
+        <v>43021</v>
       </c>
       <c r="G51" s="6">
-        <v>43016</v>
+        <v>43021</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1651,19 +1650,19 @@
         <v>2017</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52" s="5">
-        <v>10160280</v>
+        <v>10040217</v>
       </c>
       <c r="F52" s="6">
-        <v>43024</v>
+        <v>43012</v>
       </c>
       <c r="G52" s="6">
-        <v>43024</v>
+        <v>43012</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1671,19 +1670,19 @@
         <v>2017</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D53" s="5">
-        <v>10220301</v>
+        <v>10080223</v>
       </c>
       <c r="F53" s="6">
-        <v>43030</v>
+        <v>43016</v>
       </c>
       <c r="G53" s="6">
-        <v>43030</v>
+        <v>43016</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1691,19 +1690,19 @@
         <v>2017</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" s="5">
-        <v>10270337</v>
+        <v>10160280</v>
       </c>
       <c r="F54" s="6">
-        <v>43035</v>
+        <v>43024</v>
       </c>
       <c r="G54" s="6">
-        <v>43035</v>
+        <v>43024</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1711,19 +1710,19 @@
         <v>2017</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55" s="5">
-        <v>10310355</v>
+        <v>10220301</v>
       </c>
       <c r="F55" s="6">
-        <v>43039</v>
+        <v>43030</v>
       </c>
       <c r="G55" s="6">
-        <v>43039</v>
+        <v>43030</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1731,19 +1730,19 @@
         <v>2017</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" s="5">
-        <v>10120244</v>
+        <v>10270337</v>
       </c>
       <c r="F56" s="6">
-        <v>43020</v>
+        <v>43035</v>
       </c>
       <c r="G56" s="6">
-        <v>43020</v>
+        <v>43035</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1751,19 +1750,19 @@
         <v>2017</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57" s="5">
-        <v>10160284</v>
+        <v>10310355</v>
       </c>
       <c r="F57" s="6">
-        <v>43024</v>
+        <v>43039</v>
       </c>
       <c r="G57" s="6">
-        <v>43024</v>
+        <v>43039</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1771,19 +1770,19 @@
         <v>2017</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58" s="5">
-        <v>10130266</v>
+        <v>10120244</v>
       </c>
       <c r="F58" s="6">
-        <v>43021</v>
+        <v>43020</v>
       </c>
       <c r="G58" s="6">
-        <v>43021</v>
+        <v>43020</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1791,13 +1790,13 @@
         <v>2017</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D59" s="5">
-        <v>10160275</v>
+        <v>10160284</v>
       </c>
       <c r="F59" s="6">
         <v>43024</v>
@@ -1811,19 +1810,19 @@
         <v>2017</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60" s="5">
-        <v>10210295</v>
+        <v>10130266</v>
       </c>
       <c r="F60" s="6">
-        <v>43029</v>
+        <v>43021</v>
       </c>
       <c r="G60" s="6">
-        <v>43029</v>
+        <v>43021</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1831,19 +1830,19 @@
         <v>2017</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D61" s="5">
-        <v>10250304</v>
+        <v>10160275</v>
       </c>
       <c r="F61" s="6">
-        <v>43033</v>
+        <v>43024</v>
       </c>
       <c r="G61" s="6">
-        <v>43033</v>
+        <v>43024</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1851,19 +1850,19 @@
         <v>2017</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62" s="5">
-        <v>10250307</v>
+        <v>10210295</v>
       </c>
       <c r="F62" s="6">
-        <v>43033</v>
+        <v>43029</v>
       </c>
       <c r="G62" s="6">
-        <v>43033</v>
+        <v>43029</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1871,19 +1870,19 @@
         <v>2017</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D63" s="5">
-        <v>10290346</v>
+        <v>10250304</v>
       </c>
       <c r="F63" s="6">
-        <v>43037</v>
+        <v>43033</v>
       </c>
       <c r="G63" s="6">
-        <v>43037</v>
+        <v>43033</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1891,19 +1890,19 @@
         <v>2017</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D64" s="5">
-        <v>10220298</v>
+        <v>10250307</v>
       </c>
       <c r="F64" s="6">
-        <v>43030</v>
+        <v>43033</v>
       </c>
       <c r="G64" s="6">
-        <v>43030</v>
+        <v>43033</v>
       </c>
     </row>
     <row r="65" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1911,19 +1910,19 @@
         <v>2017</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65" s="5">
-        <v>10120247</v>
+        <v>10290346</v>
       </c>
       <c r="F65" s="6">
-        <v>43020</v>
+        <v>43037</v>
       </c>
       <c r="G65" s="6">
-        <v>43020</v>
+        <v>43037</v>
       </c>
     </row>
     <row r="66" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1931,68 +1930,59 @@
         <v>2017</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D66" s="5">
+        <v>10220298</v>
+      </c>
+      <c r="F66" s="6">
+        <v>43030</v>
+      </c>
+      <c r="G66" s="6">
+        <v>43030</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="5">
+        <v>10120247</v>
+      </c>
+      <c r="F67" s="6">
+        <v>43020</v>
+      </c>
+      <c r="G67" s="6">
+        <v>43020</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="5">
         <v>10110243</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F68" s="6">
         <v>43019</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G68" s="6">
         <v>43019</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="3">
-        <v>10260313</v>
-      </c>
-      <c r="F67" s="4">
-        <v>43035</v>
-      </c>
-      <c r="G67" s="4">
-        <v>43034</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="3">
-        <v>10080232</v>
-      </c>
-      <c r="F68" s="4">
-        <v>43018</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2000,65 +1990,74 @@
         <v>2017</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D69" s="3">
+        <v>10260313</v>
+      </c>
+      <c r="F69" s="4">
+        <v>43035</v>
+      </c>
+      <c r="G69" s="4">
+        <v>43034</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="3">
+        <v>10080232</v>
+      </c>
+      <c r="F70" s="4">
+        <v>43018</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="3">
         <v>451</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F71" s="4">
         <v>43102</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G71" s="4">
         <v>43102</v>
       </c>
-      <c r="I69" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
-        <v>2017</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="5">
-        <v>151</v>
-      </c>
-      <c r="F70" s="6">
-        <v>43005</v>
-      </c>
-      <c r="G70" s="6">
-        <v>43005</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
-        <v>2017</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="5">
-        <v>274</v>
-      </c>
-      <c r="F71" s="6">
-        <v>43027</v>
-      </c>
-      <c r="G71" s="6">
-        <v>43027</v>
+      <c r="I71" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2066,19 +2065,19 @@
         <v>2017</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D72" s="5">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="F72" s="6">
-        <v>43010</v>
+        <v>43005</v>
       </c>
       <c r="G72" s="6">
-        <v>43010</v>
+        <v>43005</v>
       </c>
     </row>
     <row r="73" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2086,19 +2085,19 @@
         <v>2017</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D73" s="5">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="F73" s="6">
-        <v>43011</v>
+        <v>43027</v>
       </c>
       <c r="G73" s="6">
-        <v>43011</v>
+        <v>43027</v>
       </c>
     </row>
     <row r="74" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2106,13 +2105,13 @@
         <v>2017</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D74" s="5">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F74" s="6">
         <v>43010</v>
@@ -2126,19 +2125,19 @@
         <v>2017</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D75" s="5">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="F75" s="6">
-        <v>43001</v>
+        <v>43011</v>
       </c>
       <c r="G75" s="6">
-        <v>43001</v>
+        <v>43011</v>
       </c>
     </row>
     <row r="76" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2146,19 +2145,19 @@
         <v>2017</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D76" s="5">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="F76" s="6">
-        <v>43002</v>
+        <v>43010</v>
       </c>
       <c r="G76" s="6">
-        <v>43002</v>
+        <v>43010</v>
       </c>
     </row>
     <row r="77" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2166,19 +2165,19 @@
         <v>2017</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D77" s="5">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F77" s="6">
-        <v>43002</v>
+        <v>43001</v>
       </c>
       <c r="G77" s="6">
-        <v>43002</v>
+        <v>43001</v>
       </c>
     </row>
     <row r="78" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2186,19 +2185,19 @@
         <v>2017</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D78" s="5">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="F78" s="6">
-        <v>43003</v>
+        <v>43002</v>
       </c>
       <c r="G78" s="6">
-        <v>43003</v>
+        <v>43002</v>
       </c>
     </row>
     <row r="79" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2206,19 +2205,19 @@
         <v>2017</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D79" s="5">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="F79" s="6">
-        <v>43006</v>
+        <v>43002</v>
       </c>
       <c r="G79" s="6">
-        <v>43006</v>
+        <v>43002</v>
       </c>
     </row>
     <row r="80" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2226,19 +2225,19 @@
         <v>2017</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D80" s="5">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F80" s="6">
-        <v>43006</v>
+        <v>43003</v>
       </c>
       <c r="G80" s="6">
-        <v>43006</v>
+        <v>43003</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2246,19 +2245,19 @@
         <v>2017</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" s="5">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F81" s="6">
-        <v>43007</v>
+        <v>43006</v>
       </c>
       <c r="G81" s="6">
-        <v>43007</v>
+        <v>43006</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2266,19 +2265,19 @@
         <v>2017</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D82" s="5">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="F82" s="6">
-        <v>43007</v>
+        <v>43006</v>
       </c>
       <c r="G82" s="6">
-        <v>43007</v>
+        <v>43006</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2286,13 +2285,13 @@
         <v>2017</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D83" s="5">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="F83" s="6">
         <v>43007</v>
@@ -2306,19 +2305,19 @@
         <v>2017</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D84" s="5">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="F84" s="6">
-        <v>43021</v>
+        <v>43007</v>
       </c>
       <c r="G84" s="6">
-        <v>43021</v>
+        <v>43007</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2326,19 +2325,19 @@
         <v>2017</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85" s="5">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="F85" s="6">
-        <v>43022</v>
+        <v>43007</v>
       </c>
       <c r="G85" s="6">
-        <v>43022</v>
+        <v>43007</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2346,19 +2345,19 @@
         <v>2017</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D86" s="5">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="F86" s="6">
-        <v>43024</v>
+        <v>43021</v>
       </c>
       <c r="G86" s="6">
-        <v>43024</v>
+        <v>43021</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2366,19 +2365,19 @@
         <v>2017</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D87" s="5">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F87" s="6">
-        <v>43025</v>
+        <v>43022</v>
       </c>
       <c r="G87" s="6">
-        <v>43025</v>
+        <v>43022</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2386,19 +2385,19 @@
         <v>2017</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D88" s="5">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F88" s="6">
-        <v>43025</v>
+        <v>43024</v>
       </c>
       <c r="G88" s="6">
-        <v>43025</v>
+        <v>43024</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2406,19 +2405,19 @@
         <v>2017</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89" s="5">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="F89" s="6">
-        <v>43028</v>
+        <v>43025</v>
       </c>
       <c r="G89" s="6">
-        <v>43028</v>
+        <v>43025</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2426,19 +2425,19 @@
         <v>2017</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D90" s="5">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="F90" s="6">
-        <v>43028</v>
+        <v>43025</v>
       </c>
       <c r="G90" s="6">
-        <v>43028</v>
+        <v>43025</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2446,19 +2445,19 @@
         <v>2017</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D91" s="5">
-        <v>136</v>
+        <v>277</v>
       </c>
       <c r="F91" s="6">
-        <v>43003</v>
+        <v>43028</v>
       </c>
       <c r="G91" s="6">
-        <v>43003</v>
+        <v>43028</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2466,19 +2465,19 @@
         <v>2017</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D92" s="5">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F92" s="6">
-        <v>43014</v>
+        <v>43028</v>
       </c>
       <c r="G92" s="6">
-        <v>43014</v>
+        <v>43028</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2486,19 +2485,19 @@
         <v>2017</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D93" s="5">
-        <v>271</v>
+        <v>136</v>
       </c>
       <c r="F93" s="6">
-        <v>43026</v>
+        <v>43003</v>
       </c>
       <c r="G93" s="6">
-        <v>43026</v>
+        <v>43003</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2506,19 +2505,19 @@
         <v>2017</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D94" s="5">
-        <v>37</v>
+        <v>220</v>
       </c>
       <c r="F94" s="6">
-        <v>42923</v>
+        <v>43014</v>
       </c>
       <c r="G94" s="6">
-        <v>42923</v>
+        <v>43014</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2526,19 +2525,19 @@
         <v>2017</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D95" s="5">
-        <v>1</v>
+        <v>271</v>
       </c>
       <c r="F95" s="6">
-        <v>42915</v>
+        <v>43026</v>
       </c>
       <c r="G95" s="6">
-        <v>42915</v>
+        <v>43026</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2546,19 +2545,19 @@
         <v>2017</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D96" s="5">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="F96" s="6">
-        <v>42917</v>
+        <v>42923</v>
       </c>
       <c r="G96" s="6">
-        <v>42917</v>
+        <v>42923</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2566,19 +2565,19 @@
         <v>2017</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D97" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F97" s="6">
-        <v>42919</v>
+        <v>42915</v>
       </c>
       <c r="G97" s="6">
-        <v>42919</v>
+        <v>42915</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2586,19 +2585,19 @@
         <v>2017</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D98" s="5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F98" s="6">
-        <v>42923</v>
+        <v>42917</v>
       </c>
       <c r="G98" s="6">
-        <v>42923</v>
+        <v>42917</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2606,19 +2605,19 @@
         <v>2017</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D99" s="5">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F99" s="6">
-        <v>42922</v>
+        <v>42919</v>
       </c>
       <c r="G99" s="6">
-        <v>42922</v>
+        <v>42919</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2626,19 +2625,19 @@
         <v>2017</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D100" s="5">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F100" s="6">
-        <v>42917</v>
+        <v>42923</v>
       </c>
       <c r="G100" s="6">
-        <v>42917</v>
+        <v>42923</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2646,13 +2645,13 @@
         <v>2017</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D101" s="5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F101" s="6">
         <v>42922</v>
@@ -2666,19 +2665,19 @@
         <v>2017</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D102" s="5">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F102" s="6">
-        <v>42922</v>
+        <v>42917</v>
       </c>
       <c r="G102" s="6">
-        <v>42922</v>
+        <v>42917</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2686,19 +2685,19 @@
         <v>2017</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D103" s="5">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="F103" s="6">
-        <v>43030</v>
+        <v>42922</v>
       </c>
       <c r="G103" s="6">
-        <v>43030</v>
+        <v>42922</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2706,19 +2705,19 @@
         <v>2017</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D104" s="5">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="F104" s="6">
-        <v>43034</v>
+        <v>42922</v>
       </c>
       <c r="G104" s="6">
-        <v>43034</v>
+        <v>42922</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2726,19 +2725,19 @@
         <v>2017</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D105" s="5">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="F105" s="6">
-        <v>43016</v>
+        <v>43030</v>
       </c>
       <c r="G105" s="6">
-        <v>43016</v>
+        <v>43030</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2746,19 +2745,19 @@
         <v>2017</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D106" s="5">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F106" s="6">
-        <v>43037</v>
+        <v>43034</v>
       </c>
       <c r="G106" s="6">
-        <v>43037</v>
+        <v>43034</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2766,19 +2765,19 @@
         <v>2017</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D107" s="5">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F107" s="6">
-        <v>43024</v>
+        <v>43016</v>
       </c>
       <c r="G107" s="6">
-        <v>43024</v>
+        <v>43016</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2786,19 +2785,19 @@
         <v>2017</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D108" s="5">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="F108" s="6">
-        <v>43026</v>
+        <v>43037</v>
       </c>
       <c r="G108" s="6">
-        <v>43026</v>
+        <v>43037</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2806,19 +2805,19 @@
         <v>2017</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D109" s="5">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F109" s="6">
-        <v>43020</v>
+        <v>43024</v>
       </c>
       <c r="G109" s="6">
-        <v>43020</v>
+        <v>43024</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2826,19 +2825,19 @@
         <v>2017</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D110" s="5">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F110" s="6">
-        <v>43028</v>
+        <v>43026</v>
       </c>
       <c r="G110" s="6">
-        <v>43028</v>
+        <v>43026</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2846,19 +2845,19 @@
         <v>2017</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D111" s="5">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F111" s="6">
-        <v>43030</v>
+        <v>43020</v>
       </c>
       <c r="G111" s="6">
-        <v>43030</v>
+        <v>43020</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2866,19 +2865,19 @@
         <v>2017</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D112" s="5">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="F112" s="6">
-        <v>43024</v>
+        <v>43028</v>
       </c>
       <c r="G112" s="6">
-        <v>43024</v>
+        <v>43028</v>
       </c>
     </row>
     <row r="113" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2886,19 +2885,19 @@
         <v>2017</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D113" s="5">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="F113" s="6">
-        <v>42995</v>
+        <v>43030</v>
       </c>
       <c r="G113" s="6">
-        <v>42995</v>
+        <v>43030</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2906,19 +2905,19 @@
         <v>2017</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D114" s="5">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F114" s="6">
-        <v>42998</v>
+        <v>43024</v>
       </c>
       <c r="G114" s="6">
-        <v>42998</v>
+        <v>43024</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2926,19 +2925,19 @@
         <v>2017</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D115" s="5">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="F115" s="6">
-        <v>43018</v>
+        <v>42995</v>
       </c>
       <c r="G115" s="6">
-        <v>43018</v>
+        <v>42995</v>
       </c>
     </row>
     <row r="116" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2946,19 +2945,19 @@
         <v>2017</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D116" s="5">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F116" s="6">
-        <v>42982</v>
+        <v>42998</v>
       </c>
       <c r="G116" s="6">
-        <v>42982</v>
+        <v>42998</v>
       </c>
     </row>
     <row r="117" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2966,19 +2965,19 @@
         <v>2017</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D117" s="5">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="F117" s="6">
-        <v>43006</v>
+        <v>43018</v>
       </c>
       <c r="G117" s="6">
-        <v>43006</v>
+        <v>43018</v>
       </c>
     </row>
     <row r="118" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2986,19 +2985,19 @@
         <v>2017</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D118" s="5">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="F118" s="6">
-        <v>43016</v>
+        <v>42982</v>
       </c>
       <c r="G118" s="6">
-        <v>43016</v>
+        <v>42982</v>
       </c>
     </row>
     <row r="119" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3006,19 +3005,19 @@
         <v>2017</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D119" s="5">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F119" s="6">
-        <v>42982</v>
+        <v>43006</v>
       </c>
       <c r="G119" s="6">
-        <v>42982</v>
+        <v>43006</v>
       </c>
     </row>
     <row r="120" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3026,19 +3025,19 @@
         <v>2017</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D120" s="5">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="F120" s="6">
-        <v>42992</v>
+        <v>43016</v>
       </c>
       <c r="G120" s="6">
-        <v>42992</v>
+        <v>43016</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3046,19 +3045,19 @@
         <v>2017</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D121" s="5">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="F121" s="6">
-        <v>43007</v>
+        <v>42982</v>
       </c>
       <c r="G121" s="6">
-        <v>43007</v>
+        <v>42982</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3066,19 +3065,19 @@
         <v>2017</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D122" s="5">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F122" s="6">
-        <v>43000</v>
+        <v>42992</v>
       </c>
       <c r="G122" s="6">
-        <v>43000</v>
+        <v>42992</v>
       </c>
     </row>
     <row r="123" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3086,19 +3085,19 @@
         <v>2017</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D123" s="5">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="F123" s="6">
-        <v>43019</v>
+        <v>43007</v>
       </c>
       <c r="G123" s="6">
-        <v>43019</v>
+        <v>43007</v>
       </c>
     </row>
     <row r="124" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3106,19 +3105,19 @@
         <v>2017</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D124" s="5">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F124" s="6">
-        <v>42996</v>
+        <v>43000</v>
       </c>
       <c r="G124" s="6">
-        <v>42996</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="125" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3126,19 +3125,19 @@
         <v>2017</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D125" s="5">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="F125" s="6">
-        <v>43002</v>
+        <v>43019</v>
       </c>
       <c r="G125" s="6">
-        <v>43002</v>
+        <v>43019</v>
       </c>
     </row>
     <row r="126" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3146,19 +3145,19 @@
         <v>2017</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D126" s="5">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="F126" s="6">
-        <v>43011</v>
+        <v>42996</v>
       </c>
       <c r="G126" s="6">
-        <v>43011</v>
+        <v>42996</v>
       </c>
     </row>
     <row r="127" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3166,19 +3165,19 @@
         <v>2017</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D127" s="5">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="F127" s="6">
-        <v>42982</v>
+        <v>43002</v>
       </c>
       <c r="G127" s="6">
-        <v>42982</v>
+        <v>43002</v>
       </c>
     </row>
     <row r="128" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3186,18 +3185,58 @@
         <v>2017</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D128" s="5">
+        <v>91</v>
+      </c>
+      <c r="F128" s="6">
+        <v>43011</v>
+      </c>
+      <c r="G128" s="6">
+        <v>43011</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="5">
+        <v>5</v>
+      </c>
+      <c r="F129" s="6">
+        <v>42982</v>
+      </c>
+      <c r="G129" s="6">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="5">
         <v>136</v>
       </c>
-      <c r="F128" s="6">
+      <c r="F130" s="6">
         <v>43028</v>
       </c>
-      <c r="G128" s="6">
+      <c r="G130" s="6">
         <v>43028</v>
       </c>
     </row>
